--- a/annotations/regions_update.xlsx
+++ b/annotations/regions_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urwah/Documents/PhD/Brain_transcriptome/July_2023/brain_transcriptome/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614DF88C-150F-EA40-8116-D99648E0EAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD74589-8EC5-214C-8B91-FA7E7D76DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31020" yWindow="520" windowWidth="28800" windowHeight="15760" xr2:uid="{668471C5-3431-DD47-ACD7-325D2637D1FB}"/>
   </bookViews>

--- a/annotations/regions_update.xlsx
+++ b/annotations/regions_update.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/urwah/Documents/PhD/Brain_transcriptome/July_2023/brain_transcriptome/annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD74589-8EC5-214C-8B91-FA7E7D76DC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0F7A21-6008-2D4A-8D64-1458094E2A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-31020" yWindow="520" windowWidth="28800" windowHeight="15760" xr2:uid="{668471C5-3431-DD47-ACD7-325D2637D1FB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
   <si>
     <t>Subregion</t>
   </si>
@@ -291,9 +291,6 @@
     <t>CP</t>
   </si>
   <si>
-    <t>BrainStem</t>
-  </si>
-  <si>
     <t>MEDU</t>
   </si>
   <si>
@@ -322,6 +319,15 @@
   </si>
   <si>
     <t>DIEN</t>
+  </si>
+  <si>
+    <t>DIEN-MID</t>
+  </si>
+  <si>
+    <t>FB-MID</t>
+  </si>
+  <si>
+    <t>Brainstem</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -804,43 +810,51 @@
         <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
@@ -862,7 +876,7 @@
         <v>76</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>17</v>
@@ -873,7 +887,7 @@
         <v>77</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>17</v>
@@ -884,7 +898,7 @@
         <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -983,10 +997,10 @@
         <v>80</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -1016,10 +1030,10 @@
         <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1072,7 +1086,7 @@
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -1080,10 +1094,10 @@
         <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1091,10 +1105,10 @@
         <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
